--- a/src/main/resources/testDataLogin.xlsx
+++ b/src/main/resources/testDataLogin.xlsx
@@ -3,12 +3,12 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Chuong trinh\eclipse-java-2022-03-R-win32-x86_64\eclipse-java-2022-03-R-win32-x86_64\DACN_Tester\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{159A05FA-79B7-47EC-AAC7-5CA5835ECA73}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A79D178F-7595-48C2-A1EB-1A481D5BB832}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{AC677799-098A-4065-AC80-450F492020E2}"/>
   </bookViews>
@@ -19,7 +19,7 @@
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -165,6 +165,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="0"/>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -572,15 +573,15 @@
   <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="182" zoomScaleNormal="182" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.88671875" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="26.6640625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="27" style="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="16384" width="8.88671875" style="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" style="1" width="13.88671875" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" style="1" width="26.6640625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="1" width="27.0" collapsed="true"/>
+    <col min="4" max="16384" style="1" width="8.88671875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
@@ -700,6 +701,7 @@
       <c r="D8" s="3" t="s">
         <v>39</v>
       </c>
+      <c r="F8"/>
       <c r="G8"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">

--- a/src/main/resources/testDataLogin.xlsx
+++ b/src/main/resources/testDataLogin.xlsx
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="41">
   <si>
     <t>Test Case name</t>
   </si>
